--- a/public/uploads/student.xlsx
+++ b/public/uploads/student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\schoolZoid offline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\sz offline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291D6EA2-3AD3-49FC-B170-D750FFE39903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1F097B-0D55-4EED-ADC9-59D42F03F9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8475" yWindow="2085" windowWidth="11655" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
-  <si>
-    <t>studentId</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <t>uid</t>
   </si>
   <si>
     <t>name</t>
@@ -36,104 +36,62 @@
     <t>surname</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>class1</t>
+  </si>
+  <si>
     <t>gender</t>
   </si>
   <si>
-    <t>dob</t>
-  </si>
-  <si>
     <t>mobile</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>TY700010</t>
+  </si>
+  <si>
+    <t>Chiko</t>
+  </si>
+  <si>
+    <t>Banda</t>
+  </si>
+  <si>
+    <t>cashreq00@gmail.com</t>
+  </si>
+  <si>
+    <t>23/09/2003</t>
+  </si>
+  <si>
+    <t>mbare</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>kate</t>
-  </si>
-  <si>
-    <t>johns</t>
-  </si>
-  <si>
-    <t>alyx</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>mun@gmail.com</t>
-  </si>
-  <si>
-    <t>alborg 88</t>
-  </si>
-  <si>
-    <t>st john ave</t>
-  </si>
-  <si>
-    <t>colville st</t>
-  </si>
-  <si>
-    <t>neth 99</t>
-  </si>
-  <si>
-    <t>reece</t>
-  </si>
-  <si>
-    <t>oxford</t>
-  </si>
-  <si>
-    <t>kate33@gmail.com</t>
-  </si>
-  <si>
-    <t>recox44@gmail.com</t>
-  </si>
-  <si>
-    <t>stack</t>
-  </si>
-  <si>
-    <t>toni</t>
-  </si>
-  <si>
-    <t>busk</t>
-  </si>
-  <si>
-    <t>ST120</t>
-  </si>
-  <si>
-    <t>ST121</t>
-  </si>
-  <si>
-    <t>ST122</t>
-  </si>
-  <si>
-    <t>ST123</t>
-  </si>
-  <si>
-    <t>11A</t>
-  </si>
-  <si>
-    <t>class1</t>
+    <t>num</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,12 +103,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,14 +135,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -472,207 +422,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>88476466</v>
+      </c>
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3">
-        <v>44336</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>44899004</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3">
-        <v>44289</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>44647889</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3">
-        <v>42117</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4">
-        <v>44900957</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3">
-        <v>42868</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5">
-        <v>44879938</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K9" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{8AA0FDE1-B873-454A-8759-468BB11796C4}"/>
-    <hyperlink ref="J3:J5" r:id="rId2" display="mun@gmail.com" xr:uid="{DF517912-9153-4FF7-9D9E-D84F2B4752CF}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{16FC0198-35BB-4AE6-AF0C-E819DE92A359}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{84A4476E-5A34-429A-88EE-697B12A28714}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/public/uploads/student.xlsx
+++ b/public/uploads/student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\sz offline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\schoolZoid edited Videos\schoolZoid offline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1F097B-0D55-4EED-ADC9-59D42F03F9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B73677C-12D5-4E94-92D6-5E73841437F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8475" yWindow="2085" windowWidth="11655" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,73 +25,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>kate</t>
+  </si>
+  <si>
+    <t>johns</t>
+  </si>
+  <si>
+    <t>alyx</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>alborg 88</t>
+  </si>
+  <si>
+    <t>st john ave</t>
+  </si>
+  <si>
+    <t>colville st</t>
+  </si>
+  <si>
+    <t>neth 99</t>
+  </si>
+  <si>
+    <t>reece</t>
+  </si>
+  <si>
+    <t>oxford</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>toni</t>
+  </si>
+  <si>
+    <t>busk</t>
+  </si>
+  <si>
+    <t>11A</t>
+  </si>
+  <si>
+    <t>class1</t>
+  </si>
+  <si>
+    <t>SZ120</t>
+  </si>
+  <si>
+    <t>SZ121</t>
+  </si>
+  <si>
+    <t>SZ122</t>
+  </si>
+  <si>
+    <t>SZ123</t>
+  </si>
   <si>
     <t>uid</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>class1</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>TY700010</t>
-  </si>
-  <si>
-    <t>Chiko</t>
-  </si>
-  <si>
-    <t>Banda</t>
+    <t>blutech02@gmail.com</t>
   </si>
   <si>
     <t>cashreq00@gmail.com</t>
   </si>
   <si>
-    <t>23/09/2003</t>
-  </si>
-  <si>
-    <t>mbare</t>
-  </si>
-  <si>
-    <t>3A</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>num</t>
+    <t>bulemusasa@gmail.com</t>
+  </si>
+  <si>
+    <t>kratosmusasa94@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +148,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,12 +186,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,30 +475,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -457,72 +504,180 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44336</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>44899004</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44289</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>44647889</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3">
+        <v>42117</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>44900957</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F5" s="3">
+        <v>42868</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2">
-        <v>88476466</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
+      <c r="H5">
+        <v>44879938</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{84A4476E-5A34-429A-88EE-697B12A28714}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{8AA0FDE1-B873-454A-8759-468BB11796C4}"/>
+    <hyperlink ref="J3:J5" r:id="rId2" display="mun@gmail.com" xr:uid="{DF517912-9153-4FF7-9D9E-D84F2B4752CF}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{16FC0198-35BB-4AE6-AF0C-E819DE92A359}"/>
+    <hyperlink ref="J4" r:id="rId4" xr:uid="{F8ABDAD7-F93F-4D5A-8015-5103480A395F}"/>
+    <hyperlink ref="J5" r:id="rId5" xr:uid="{F5079560-0B3E-4FD6-8859-833F73F77636}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
--- a/public/uploads/student.xlsx
+++ b/public/uploads/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\schoolZoid edited Videos\schoolZoid offline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B73677C-12D5-4E94-92D6-5E73841437F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E072C5F8-3606-4D25-A1C9-BFA9BADE8617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/uploads/student.xlsx
+++ b/public/uploads/student.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\schoolZoid edited Videos\schoolZoid offline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\schoolzoid testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E072C5F8-3606-4D25-A1C9-BFA9BADE8617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114FE28F-4AF0-4EBA-9BEB-81D093387884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -117,16 +117,127 @@
     <t>uid</t>
   </si>
   <si>
-    <t>blutech02@gmail.com</t>
-  </si>
-  <si>
-    <t>cashreq00@gmail.com</t>
-  </si>
-  <si>
-    <t>bulemusasa@gmail.com</t>
-  </si>
-  <si>
-    <t>kratosmusasa94@gmail.com</t>
+    <t>12B</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>katejohns@gmail.com</t>
+  </si>
+  <si>
+    <t>reeceoxford@gmail.com</t>
+  </si>
+  <si>
+    <t>alyxstack@gmail.com</t>
+  </si>
+  <si>
+    <t>tonibusk@gmail.com</t>
+  </si>
+  <si>
+    <t>SZ124</t>
+  </si>
+  <si>
+    <t>SZ125</t>
+  </si>
+  <si>
+    <t>SZ126</t>
+  </si>
+  <si>
+    <t>SZ127</t>
+  </si>
+  <si>
+    <t>Darren</t>
+  </si>
+  <si>
+    <t>Lawrie</t>
+  </si>
+  <si>
+    <t>Niall</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>Sue</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>SZ128</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Zeits</t>
+  </si>
+  <si>
+    <t>SZ129</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Lamy</t>
+  </si>
+  <si>
+    <t>darrenlawrie@gmail.com</t>
+  </si>
+  <si>
+    <t>niallmason@gmail.com</t>
+  </si>
+  <si>
+    <t>scottroberts@gmail.com</t>
+  </si>
+  <si>
+    <t>suesky@gmail.com</t>
+  </si>
+  <si>
+    <t>lisazeits@gmail.com</t>
+  </si>
+  <si>
+    <t>sofialamy@gmail.com</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>pic1.webp</t>
+  </si>
+  <si>
+    <t>st9.jpg</t>
+  </si>
+  <si>
+    <t>st5.jpg</t>
+  </si>
+  <si>
+    <t>st8.jpg</t>
+  </si>
+  <si>
+    <t>st6.jpg</t>
+  </si>
+  <si>
+    <t>X.jpg</t>
+  </si>
+  <si>
+    <t>pic7.jpg</t>
+  </si>
+  <si>
+    <t>st2.webp</t>
+  </si>
+  <si>
+    <t>pic3.webp</t>
+  </si>
+  <si>
+    <t>st4.webp</t>
   </si>
 </sst>
 </file>
@@ -475,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,11 +597,12 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -524,8 +636,11 @@
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -554,13 +669,16 @@
         <v>23</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
       </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -589,13 +707,16 @@
         <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
         <v>7</v>
       </c>
+      <c r="L3" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -609,7 +730,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3">
         <v>42117</v>
@@ -621,16 +742,19 @@
         <v>44900957</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
         <v>7</v>
       </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -644,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3">
         <v>42868</v>
@@ -656,17 +780,245 @@
         <v>44879938</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
       </c>
+      <c r="L5" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K9" s="3"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44336</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>44899004</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44289</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>44647889</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3">
+        <v>42117</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>44900957</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3">
+        <v>42868</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>44879938</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>42868</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>44879938</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>42868</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>44879938</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -676,8 +1028,15 @@
     <hyperlink ref="J3" r:id="rId3" xr:uid="{16FC0198-35BB-4AE6-AF0C-E819DE92A359}"/>
     <hyperlink ref="J4" r:id="rId4" xr:uid="{F8ABDAD7-F93F-4D5A-8015-5103480A395F}"/>
     <hyperlink ref="J5" r:id="rId5" xr:uid="{F5079560-0B3E-4FD6-8859-833F73F77636}"/>
+    <hyperlink ref="J6" r:id="rId6" xr:uid="{F2CA633C-E70C-419E-A7A8-7FBA82EE7BB5}"/>
+    <hyperlink ref="J7:J9" r:id="rId7" display="mun@gmail.com" xr:uid="{5A108A41-C61B-45C1-8B92-773AAB1F6AB3}"/>
+    <hyperlink ref="J7" r:id="rId8" xr:uid="{758086A2-34E5-4AFF-A949-C84788ED6540}"/>
+    <hyperlink ref="J8" r:id="rId9" xr:uid="{A9207DBD-622B-43F6-87A5-BBCA678FD709}"/>
+    <hyperlink ref="J9" r:id="rId10" xr:uid="{05D22D39-2C7C-4C33-88D2-BFF422A0B27A}"/>
+    <hyperlink ref="J10" r:id="rId11" xr:uid="{3017F51A-6254-417C-890A-3A11383983E5}"/>
+    <hyperlink ref="J11" r:id="rId12" xr:uid="{60FF49B5-2F59-4BEC-9269-968265E3F045}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>